--- a/csv/heros.dict.xlsx
+++ b/csv/heros.dict.xlsx
@@ -154,7 +154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -201,7 +201,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +516,7 @@
     <col min="3" max="3" style="5" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
@@ -524,7 +524,7 @@
     <col min="11" max="11" style="4" width="26.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -629,7 +629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -664,7 +664,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -769,7 +769,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="3">
         <v>5</v>
       </c>
